--- a/outputs/performance.xlsx
+++ b/outputs/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\curvatureStep\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9DCF01-45F4-44AE-A9D4-766422726BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350BB484-2411-4F40-B50C-14EDCA97E04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="749" firstSheet="18" activeTab="29" xr2:uid="{B0B4CF9D-E7FE-4E5A-B88F-49930A50BDCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="749" firstSheet="2" activeTab="2" xr2:uid="{B0B4CF9D-E7FE-4E5A-B88F-49930A50BDCF}"/>
   </bookViews>
   <sheets>
     <sheet name="imdb_reviews" sheetId="5" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="285">
   <si>
     <t>Optimizer Name</t>
   </si>
@@ -1000,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1018,13 +1018,12 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -32763,10 +32762,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:BF25"/>
+  <dimension ref="A1:BF32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BA3" sqref="BA3"/>
+      <selection activeCell="BO12" sqref="BO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35493,7 +35492,7 @@
         <v>1.2195</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:58">
       <c r="A17" s="10" t="s">
         <v>187</v>
       </c>
@@ -35648,7 +35647,7 @@
         <v>1.0402750000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:58">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -35803,7 +35802,7 @@
         <v>1.0373999999999901</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:58">
       <c r="A19" s="10" t="s">
         <v>188</v>
       </c>
@@ -35958,7 +35957,7 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:58">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
@@ -36112,8 +36111,26 @@
       <c r="AY20">
         <v>1.1415999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:51">
+      <c r="BA20" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>93</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>103</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58">
       <c r="A21" s="10" t="s">
         <v>189</v>
       </c>
@@ -36267,8 +36284,26 @@
       <c r="AY21">
         <v>1.0292749999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:51">
+      <c r="BA21" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB21">
+        <v>0.43449999999998967</v>
+      </c>
+      <c r="BC21">
+        <v>0.20177500000001003</v>
+      </c>
+      <c r="BD21">
+        <v>0.17077500000000012</v>
+      </c>
+      <c r="BE21">
+        <v>0.13839999999999986</v>
+      </c>
+      <c r="BF21">
+        <v>0.11919999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58">
       <c r="A22" s="10" t="s">
         <v>16</v>
       </c>
@@ -36422,8 +36457,26 @@
       <c r="AY22">
         <v>1.025725</v>
       </c>
-    </row>
-    <row r="23" spans="1:51">
+      <c r="BA22" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB22">
+        <v>8.7299999999999933E-2</v>
+      </c>
+      <c r="BC22">
+        <v>5.4950000000000054E-2</v>
+      </c>
+      <c r="BD22">
+        <v>7.4124999999999996E-2</v>
+      </c>
+      <c r="BE22">
+        <v>0.27469999999999994</v>
+      </c>
+      <c r="BF22">
+        <v>0.1586249999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58">
       <c r="A23" s="10" t="s">
         <v>190</v>
       </c>
@@ -36577,8 +36630,26 @@
       <c r="AY23">
         <v>1.1098250000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:51">
+      <c r="BA23" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB23">
+        <v>-1.9225000000000048E-2</v>
+      </c>
+      <c r="BC23">
+        <v>6.4099999999999935E-2</v>
+      </c>
+      <c r="BD23">
+        <v>0.16985</v>
+      </c>
+      <c r="BE23">
+        <v>0.107649999999999</v>
+      </c>
+      <c r="BF23">
+        <v>2.6175000000000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58">
       <c r="A24" s="10" t="s">
         <v>17</v>
       </c>
@@ -36732,8 +36803,26 @@
       <c r="AY24">
         <v>1.512675</v>
       </c>
-    </row>
-    <row r="25" spans="1:51">
+      <c r="BA24" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB24">
+        <v>7.8049999999990183E-2</v>
+      </c>
+      <c r="BC24">
+        <v>0.18137499999999995</v>
+      </c>
+      <c r="BD24">
+        <v>0.35624999999999901</v>
+      </c>
+      <c r="BE24">
+        <v>0.40809999999999996</v>
+      </c>
+      <c r="BF24">
+        <v>0.388649999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58">
       <c r="A25" s="10" t="s">
         <v>191</v>
       </c>
@@ -36887,10 +36976,168 @@
       <c r="AY25">
         <v>1.0786499999999899</v>
       </c>
+      <c r="BA25" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB25">
+        <v>5.5174999999999974E-2</v>
+      </c>
+      <c r="BC25">
+        <v>-8.3024999999999016E-2</v>
+      </c>
+      <c r="BD25">
+        <v>-0.27717499999999995</v>
+      </c>
+      <c r="BE25">
+        <v>-9.4475000000000003E-2</v>
+      </c>
+      <c r="BF25">
+        <v>-5.0349999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58">
+      <c r="BA26" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB26">
+        <v>0.20094999999999996</v>
+      </c>
+      <c r="BC26">
+        <v>0.32477500000000004</v>
+      </c>
+      <c r="BD26">
+        <v>0.34592500000000004</v>
+      </c>
+      <c r="BE26">
+        <v>0.36330000000000096</v>
+      </c>
+      <c r="BF26">
+        <v>0.36802500000000105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58">
+      <c r="BA27" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB27">
+        <v>-3.1224999999999836E-2</v>
+      </c>
+      <c r="BC27">
+        <v>0.13252499999999001</v>
+      </c>
+      <c r="BD27">
+        <v>3.7750000000098538E-3</v>
+      </c>
+      <c r="BE27">
+        <v>0.18290000000000006</v>
+      </c>
+      <c r="BF27">
+        <v>0.17922499999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58">
+      <c r="BA28" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB28">
+        <v>-5.0575000000000037E-2</v>
+      </c>
+      <c r="BC28">
+        <v>2.3924999999999974E-2</v>
+      </c>
+      <c r="BD28">
+        <v>-0.12524999999999009</v>
+      </c>
+      <c r="BE28">
+        <v>-0.14884999999999993</v>
+      </c>
+      <c r="BF28">
+        <v>-0.15060000000000984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58">
+      <c r="BA29" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB29">
+        <v>0.20120000000000005</v>
+      </c>
+      <c r="BC29">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="BD29">
+        <v>0.34715000000000007</v>
+      </c>
+      <c r="BE29">
+        <v>0.3640500000000001</v>
+      </c>
+      <c r="BF29">
+        <v>0.36724999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:58">
+      <c r="BA30" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB30">
+        <v>6.6000000000099313E-3</v>
+      </c>
+      <c r="BC30">
+        <v>0.19027499999999997</v>
+      </c>
+      <c r="BD30">
+        <v>0.1918749999999998</v>
+      </c>
+      <c r="BE30">
+        <v>1.1499999999999844E-3</v>
+      </c>
+      <c r="BF30">
+        <v>0.11232500000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58">
+      <c r="BA31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB31">
+        <v>-1.4674999999990002E-2</v>
+      </c>
+      <c r="BC31">
+        <v>7.4750000000001204E-3</v>
+      </c>
+      <c r="BD31">
+        <v>-1.8249999999899735E-3</v>
+      </c>
+      <c r="BE31">
+        <v>-1.4350000000000085E-2</v>
+      </c>
+      <c r="BF31">
+        <v>-8.4100000000000064E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58">
+      <c r="BA32" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB32">
+        <v>0.8302750000000001</v>
+      </c>
+      <c r="BC32">
+        <v>0.4859500000000001</v>
+      </c>
+      <c r="BD32">
+        <v>0.4275499999999901</v>
+      </c>
+      <c r="BE32">
+        <v>0.43102500000000998</v>
+      </c>
+      <c r="BF32">
+        <v>0.4340250000000101</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BA2:BF24">
-    <sortCondition descending="1" ref="BF2:BF24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BA21:BF32">
+    <sortCondition ref="BA20:BA32"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51099,48 +51346,48 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:25">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="P5" s="15" t="s">
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="P5" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="s">
+      <c r="S5" s="16"/>
+      <c r="T5" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
+      <c r="U5" s="16"/>
+      <c r="V5" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15" t="s">
+      <c r="W5" s="16"/>
+      <c r="X5" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="Y5" s="15"/>
+      <c r="Y5" s="16"/>
     </row>
     <row r="6" spans="2:25">
       <c r="B6" t="s">
@@ -52979,8 +53226,8 @@
   </sheetPr>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="2" sqref="K1:K26 F1:F26 A1:A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -54690,13 +54937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E934572-03BA-4665-B85F-4E8129197498}">
   <dimension ref="A1:AZ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB57" workbookViewId="0">
-      <selection activeCell="AD81" sqref="AD81"/>
+    <sheetView topLeftCell="AB57" workbookViewId="0">
+      <selection activeCell="AL73" sqref="AL73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.5703125" customWidth="1"/>
     <col min="29" max="50" width="8" customWidth="1"/>
     <col min="51" max="52" width="8.7109375" customWidth="1"/>
@@ -54725,7 +54972,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
-      <c r="A1" s="16"/>
+      <c r="A1" s="15"/>
       <c r="B1" t="s">
         <v>205</v>
       </c>
@@ -54872,7 +55119,7 @@
       </c>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -55021,12 +55268,12 @@
         <v>11</v>
       </c>
       <c r="AZ2">
-        <f>AVERAGE(AC2:AX2)</f>
+        <f t="shared" ref="AZ2:AZ13" si="0">AVERAGE(AC2:AX2)</f>
         <v>12.522727272727273</v>
       </c>
     </row>
     <row r="3" spans="1:52">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>180</v>
       </c>
       <c r="B3">
@@ -55102,7 +55349,7 @@
         <v>7.2173913043478199</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z25" si="0">MEDIAN(B3:X3)</f>
+        <f t="shared" ref="Z3:Z25" si="1">MEDIAN(B3:X3)</f>
         <v>5</v>
       </c>
       <c r="AB3" t="s">
@@ -55175,12 +55422,12 @@
         <v>9</v>
       </c>
       <c r="AZ3">
-        <f>AVERAGE(AC3:AX3)</f>
+        <f t="shared" si="0"/>
         <v>7.9318181818181817</v>
       </c>
     </row>
     <row r="4" spans="1:52">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -55256,7 +55503,7 @@
         <v>22.260869565217298</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="AB4" t="s">
@@ -55329,12 +55576,12 @@
         <v>9</v>
       </c>
       <c r="AZ4">
-        <f>AVERAGE(AC4:AX4)</f>
+        <f t="shared" si="0"/>
         <v>6.6590909090909092</v>
       </c>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B5">
@@ -55410,7 +55657,7 @@
         <v>21.739130434782599</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="AB5" t="s">
@@ -55483,12 +55730,12 @@
         <v>9</v>
       </c>
       <c r="AZ5">
-        <f>AVERAGE(AC5:AX5)</f>
+        <f t="shared" si="0"/>
         <v>2.9090909090909092</v>
       </c>
     </row>
     <row r="6" spans="1:52">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -55564,7 +55811,7 @@
         <v>12.434782608695601</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="AB6" t="s">
@@ -55637,12 +55884,12 @@
         <v>2</v>
       </c>
       <c r="AZ6">
-        <f>AVERAGE(AC6:AX6)</f>
+        <f t="shared" si="0"/>
         <v>1.5454545454545454</v>
       </c>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B7">
@@ -55715,7 +55962,7 @@
         <v>10.818181818181801</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
       <c r="AB7" t="s">
@@ -55788,12 +56035,12 @@
         <v>3</v>
       </c>
       <c r="AZ7">
-        <f>AVERAGE(AC7:AX7)</f>
+        <f t="shared" si="0"/>
         <v>1.3181818181818181</v>
       </c>
     </row>
     <row r="8" spans="1:52">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B8">
@@ -55869,7 +56116,7 @@
         <v>8.1521739130434696</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AB8" t="s">
@@ -55942,12 +56189,12 @@
         <v>-6</v>
       </c>
       <c r="AZ8">
-        <f>AVERAGE(AC8:AX8)</f>
+        <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="9" spans="1:52">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>183</v>
       </c>
       <c r="B9">
@@ -56023,7 +56270,7 @@
         <v>8.2608695652173907</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AB9" t="s">
@@ -56096,12 +56343,12 @@
         <v>-1</v>
       </c>
       <c r="AZ9">
-        <f>AVERAGE(AC9:AX9)</f>
+        <f t="shared" si="0"/>
         <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="10" spans="1:52">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -56177,7 +56424,7 @@
         <v>8.0869565217391308</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AB10" t="s">
@@ -56250,12 +56497,12 @@
         <v>-7</v>
       </c>
       <c r="AZ10">
-        <f>AVERAGE(AC10:AX10)</f>
+        <f t="shared" si="0"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B11">
@@ -56331,7 +56578,7 @@
         <v>8.1521739130434696</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AB11" t="s">
@@ -56404,12 +56651,12 @@
         <v>9</v>
       </c>
       <c r="AZ11">
-        <f>AVERAGE(AC11:AX11)</f>
+        <f t="shared" si="0"/>
         <v>0.29545454545454547</v>
       </c>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -56485,7 +56732,7 @@
         <v>16.043478260869499</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="AB12" t="s">
@@ -56558,12 +56805,12 @@
         <v>-1</v>
       </c>
       <c r="AZ12">
-        <f>AVERAGE(AC12:AX12)</f>
+        <f t="shared" si="0"/>
         <v>0.20454545454545456</v>
       </c>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>185</v>
       </c>
       <c r="B13">
@@ -56639,7 +56886,7 @@
         <v>8.7391304347826093</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AB13" t="s">
@@ -56712,12 +56959,12 @@
         <v>-1</v>
       </c>
       <c r="AZ13">
-        <f>AVERAGE(AC13:AX13)</f>
+        <f t="shared" si="0"/>
         <v>-0.11363636363636363</v>
       </c>
     </row>
     <row r="14" spans="1:52">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -56793,12 +57040,12 @@
         <v>16.565217391304301</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
     </row>
     <row r="15" spans="1:52">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>186</v>
       </c>
       <c r="B15">
@@ -56874,7 +57121,7 @@
         <v>10.5217391304347</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB15" t="s">
@@ -56885,92 +57132,92 @@
         <v>2.6666666666666665</v>
       </c>
       <c r="AD15">
-        <f t="shared" ref="AD15:AX15" si="1">AVERAGE(AD2:AD13)</f>
+        <f t="shared" ref="AD15:AX15" si="2">AVERAGE(AD2:AD13)</f>
         <v>-0.16666666666666666</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9166666666666665</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.25</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9166666666666667</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4166666666666665</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.916666666666667</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.416666666666667</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="AT15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="AU15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.666666666666667</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:52">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B16">
@@ -57046,12 +57293,12 @@
         <v>15.6521739130434</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:42">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>187</v>
       </c>
       <c r="B17">
@@ -57127,12 +57374,12 @@
         <v>14.173913043478199</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:42">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B18">
@@ -57208,12 +57455,12 @@
         <v>15.043478260869501</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:42">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>188</v>
       </c>
       <c r="B19">
@@ -57286,12 +57533,12 @@
         <v>14.6818181818181</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:42">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B20">
@@ -57367,12 +57614,12 @@
         <v>11.695652173913</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:42">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B21">
@@ -57448,12 +57695,12 @@
         <v>8.7826086956521703</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:42">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B22">
@@ -57529,12 +57776,12 @@
         <v>11.630434782608599</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:42">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>190</v>
       </c>
       <c r="B23">
@@ -57610,7 +57857,7 @@
         <v>11.1086956521739</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AC23" t="s">
@@ -57654,7 +57901,7 @@
       </c>
     </row>
     <row r="24" spans="1:42">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B24">
@@ -57730,7 +57977,7 @@
         <v>21.391304347826001</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AB24" t="s">
@@ -57777,7 +58024,7 @@
       </c>
     </row>
     <row r="25" spans="1:42">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>191</v>
       </c>
       <c r="B25">
@@ -57853,7 +58100,7 @@
         <v>9.1956521739130395</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AB25" t="s">
@@ -57900,7 +58147,7 @@
       </c>
     </row>
     <row r="26" spans="1:42">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="AB26" t="s">
         <v>252</v>
       </c>
